--- a/manuscripts/expression/sclc-tpm-de/data/sclc_rna_cycle.xlsx
+++ b/manuscripts/expression/sclc-tpm-de/data/sclc_rna_cycle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10640" yWindow="0" windowWidth="37920" windowHeight="20580" tabRatio="836" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14760" tabRatio="836"/>
   </bookViews>
   <sheets>
     <sheet name="SCLC" sheetId="26" r:id="rId1"/>
@@ -1263,8 +1263,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -1289,7 +1289,54 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4864100" y="2070100"/>
+          <a:off x="5016500" y="2070100"/>
+          <a:ext cx="3657600" cy="5486400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8839200" y="2070100"/>
           <a:ext cx="3657600" cy="5486400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1388,7 +1435,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5016500" y="2578100"/>
+          <a:off x="5016500" y="2070100"/>
           <a:ext cx="3657600" cy="5486400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2322,8 +2369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2332,7 +2379,7 @@
     <col min="2" max="5" width="7.83203125" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" customWidth="1"/>
     <col min="7" max="7" width="7.83203125" customWidth="1"/>
-    <col min="12" max="12" width="4.6640625" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20">
@@ -2474,7 +2521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
@@ -2484,6 +2531,7 @@
     <col min="2" max="5" width="7.83203125" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" customWidth="1"/>
     <col min="7" max="7" width="7.83203125" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20">
@@ -2624,7 +2672,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2633,6 +2681,7 @@
     <col min="2" max="5" width="7.83203125" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" customWidth="1"/>
     <col min="7" max="7" width="7.83203125" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20">
